--- a/docs/Classification Reports/svm.xlsx
+++ b/docs/Classification Reports/svm.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.5859872611464968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6840148698884758</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.96</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7058823529411763</v>
+        <v>0.7871485943775101</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.377521613832853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5303643724696356</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5683333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.675881743715281</v>
+        <v>0.6719597685375783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52713850816666</v>
+        <v>0.5723195566638768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5247051829416629</v>
+        <v>0.5535734485456075</v>
       </c>
       <c r="E7" t="n">
-        <v>336</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6687413300693594</v>
+        <v>0.672174012320266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5310966960709015</v>
+        <v>0.5517395340796725</v>
       </c>
       <c r="E8" t="n">
-        <v>336</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Classification Reports/svm.xlsx
+++ b/docs/Classification Reports/svm.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.131578947368421</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2127659574468085</v>
+        <v>0.4147465437788019</v>
       </c>
       <c r="E2" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5859872611464968</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6840148698884758</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9537037037037037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.6821192052980133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7871485943775101</v>
+        <v>0.7953667953667954</v>
       </c>
       <c r="E4" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.377521613832853</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.891156462585034</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5303643724696356</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.6466666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6719597685375783</v>
+        <v>0.7135361701593045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5723195566638768</v>
+        <v>0.6422601523651992</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5535734485456075</v>
+        <v>0.6446226193087189</v>
       </c>
       <c r="E7" t="n">
         <v>600</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.672174012320266</v>
+        <v>0.7117264791363049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5517395340796725</v>
+        <v>0.6457738895641112</v>
       </c>
       <c r="E8" t="n">
         <v>600</v>
